--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,91 +46,103 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>ripped</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>cheap</t>
@@ -139,84 +151,84 @@
     <t>pay</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>look</t>
   </si>
   <si>
-    <t>better</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
@@ -226,30 +238,33 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -268,10 +283,10 @@
     <t>friends</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>game</t>
@@ -635,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K3">
-        <v>0.8307692307692308</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7281553398058253</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K6">
         <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7258064516129032</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C7">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -946,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -954,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.71875</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8">
-        <v>0.4528301886792453</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>0.3352459016393443</v>
+        <v>0.46875</v>
       </c>
       <c r="L9">
-        <v>409</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>409</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>811</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>0.3333333333333333</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6296296296296297</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>0.3055954088952654</v>
+        <v>0.3418032786885246</v>
       </c>
       <c r="L11">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="M11">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>484</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6283783783783784</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C12">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>0.2448132780082987</v>
+        <v>0.302725968436155</v>
       </c>
       <c r="L12">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="M12">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>364</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>0.225</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5966386554621849</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>0.2048192771084337</v>
+        <v>0.225</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>0.1834862385321101</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>267</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4898550724637681</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C16">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>0.1216931216931217</v>
+        <v>0.1620795107033639</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>166</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,38 +1419,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>24</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17">
+        <v>0.1375661375661376</v>
+      </c>
+      <c r="L17">
         <v>26</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>26</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>28</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17">
-        <v>0.08326029798422437</v>
-      </c>
-      <c r="L17">
-        <v>95</v>
-      </c>
-      <c r="M17">
-        <v>95</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1046</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4761904761904762</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K18">
-        <v>0.06827309236947791</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4545454545454545</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,31 +1537,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K19">
-        <v>0.02467532467532468</v>
+        <v>0.08413672217353199</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1502</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,7 +1587,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20">
+        <v>0.03439325113562622</v>
+      </c>
+      <c r="L20">
+        <v>53</v>
+      </c>
+      <c r="M20">
+        <v>53</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1488</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4259259259259259</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1606,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4222222222222222</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>19</v>
-      </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4094488188976378</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1650,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>75</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1658,13 +1697,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3707865168539326</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1676,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1684,13 +1723,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3684210526315789</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1702,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1710,13 +1749,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3571428571428572</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1728,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1736,13 +1775,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3373493975903614</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1754,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1762,13 +1801,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3359375</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1780,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1788,13 +1827,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3333333333333333</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1814,13 +1853,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3125</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1832,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1840,13 +1879,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3061224489795918</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1858,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1866,13 +1905,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.297029702970297</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1884,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>142</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1892,13 +1931,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2962962962962963</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1910,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1918,13 +1957,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2748815165876777</v>
+        <v>0.3125</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1936,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>153</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1944,13 +1983,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.253968253968254</v>
+        <v>0.296875</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1962,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1970,13 +2009,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2478632478632479</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1988,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1996,13 +2035,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2319587628865979</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C37">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2014,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>149</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2022,13 +2061,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2173913043478261</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2040,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2048,13 +2087,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2162162162162162</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2066,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2074,13 +2113,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2040816326530612</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2092,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>78</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2100,13 +2139,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1884057971014493</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C41">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2118,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>224</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2126,13 +2165,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.185459940652819</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C42">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="D42">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2144,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>549</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2152,13 +2191,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1759259259259259</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2170,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>89</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2178,13 +2217,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1645569620253164</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C44">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2196,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2204,13 +2243,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1613924050632911</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C45">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2222,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>265</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2230,13 +2269,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.16</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2248,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>168</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2256,13 +2295,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1171875</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2274,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2282,13 +2321,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1168224299065421</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2300,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>189</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2308,13 +2347,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1147540983606557</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2326,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2334,13 +2373,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1146496815286624</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2352,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2360,13 +2399,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1123348017621145</v>
+        <v>0.15</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2378,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>403</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2386,25 +2425,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1095100864553314</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C52">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>309</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2412,13 +2451,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08571428571428572</v>
+        <v>0.125</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2430,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>160</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2438,13 +2477,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0846774193548387</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2456,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>227</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2464,25 +2503,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08465608465608465</v>
+        <v>0.1152737752161383</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>173</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2490,13 +2529,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08376963350785341</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C56">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2508,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>175</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2516,13 +2555,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.078125</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2534,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2542,13 +2581,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.07123287671232877</v>
+        <v>0.09375</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2560,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>339</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2568,13 +2607,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.06741573033707865</v>
+        <v>0.08767123287671233</v>
       </c>
       <c r="C59">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2586,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>249</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2594,25 +2633,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.06260296540362438</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="C60">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D60">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>569</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2620,13 +2659,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05122494432071269</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2638,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>426</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2646,13 +2685,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.04225352112676056</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2664,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>340</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2672,25 +2711,129 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0316055625790139</v>
+        <v>0.05790645879732739</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E63">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>766</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>16</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.04428904428904429</v>
+      </c>
+      <c r="C65">
+        <v>19</v>
+      </c>
+      <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>0.21</v>
+      </c>
+      <c r="F65">
+        <v>0.79</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.04225352112676056</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.02911392405063291</v>
+      </c>
+      <c r="C67">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>27</v>
+      </c>
+      <c r="E67">
+        <v>0.15</v>
+      </c>
+      <c r="F67">
+        <v>0.85</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
